--- a/biology/Botanique/Agaricus_silvaticus/Agaricus_silvaticus.xlsx
+++ b/biology/Botanique/Agaricus_silvaticus/Agaricus_silvaticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agaric des forêts
 Agaricus silvaticus, l'agaric des forêts, est un champignon agaricomycète du genre Agaricus et de la famille des Agaricaceae.
@@ -514,12 +526,14 @@
           <t>Fiche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau : jusqu'à 10-12 cm de diamètre, couvert de mèches brunes sur fond crème.
 Lames : libres, gris-rose vif puis brun chocolat à maturité.
 Pied : 8-10 cm de longueur sur 1,5-2 cm d'épaisseur, avec un bulbe net à la base ; à anneau en jupe assez bien formé.
-Chair : blanche, fort rougissement à la cassure, à l'odeur d'anis[1].
+Chair : blanche, fort rougissement à la cassure, à l'odeur d'anis.
 Comestibilité : bon comestible.
 </t>
         </is>
@@ -549,7 +563,9 @@
           <t>Espèces à chair rougissante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon fait partie du groupe des agarics à chair nettement rougissante.
 Il suffit de gratter la surface du pied pour voir apparaître une teinte rouge sang tout à fait caractéristique.
@@ -583,7 +599,9 @@
           <t>Habitat et saison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agaric des forêts préfère les forêts de conifères où on le trouve principalement à l'automne.
 </t>
